--- a/legendre_out/DATA/a1/a1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints4.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.556153218940945e-07</v>
+        <v>1.845196485704993e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.400875371127906e-07</v>
+        <v>1.682851502610013e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.387983768305557e-07</v>
+        <v>1.563783354302344e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.243078333829543e-07</v>
+        <v>1.46201342296671e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.25928346099854e-07</v>
+        <v>1.421866701949446e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.261099005811933e-07</v>
+        <v>1.383912615290614e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.168229824646479e-07</v>
+        <v>1.33807469023404e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.013024557578192e-07</v>
+        <v>1.13978218776105e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>9.063412671395566e-08</v>
+        <v>9.696170090376585e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>5.879740493115385e-08</v>
+        <v>6.665825899598172e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>3.459900552578712e-08</v>
+        <v>4.01471627191193e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,2287 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>2.840986263038861e-08</v>
+        <v>3.023515445267029e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.686414373908955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.335311704494737e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.687271360698501</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.806985127830974e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.689071032956547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.698095254329858e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.689928019746092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.718851377829947e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.690699307856684</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.701517782287438e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.691641993325183</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.709606649486005e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.692498980114729</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.850297737019665e-07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.693270268225319</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.514117785280932e-07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.694127255014865</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.071664873724507e-07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.695841228593956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.765461934525747e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.697555202173048</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.980900453585433e-07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.699354874431093</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.625961899994515e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.701068848010184</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.39180985579588e-07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.70286852026823</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.440856465482595e-07</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.703468411020912</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.478847948877724e-07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.704496795168366</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.340709754079706e-07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.706125070068503</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.156255358627052e-07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.707839043647593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.937143132304789e-07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.709638715905639</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.787822798143088e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.71135268948473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.589761214478699e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.713066663063821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.526844737269196e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.714609239285003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.258674229368775e-07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.716494610222004</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.929377492136302e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.718122885122139</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.631393124694725e-07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.719836858701231</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.363036863247596e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.720693845490776</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.546927957608501e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.721636530959276</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.149792693835655e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.723350504538367</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.183922102538566e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.725064478117458</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.127191604428428e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.729178014707276</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.923719724459576e-08</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.73337724997605</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.281103065625085e-08</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.737747882602732</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.07925392738728e-08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.754973317072596</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.171808693046745e-08</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.772113052863507</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.148966374558714e-08</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.789167089975462</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.47363679322677e-08</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.797908355228826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.363003508014634e-08</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.806478223124282</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.295758656808003e-08</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.814876693661827</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.074229030966265e-08</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.823360862878328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.06490396953605e-08</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.82773149550501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.774495874420815e-08</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.832102128131692</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.601648592906522e-08</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.840586297348192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.634613155556614e-08</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.847442191664556</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.918623065060769e-08</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.854383784659876</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.736655223324738e-08</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.856183456917921</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.634698154776183e-08</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.857811731818057</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.390557753127136e-08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.859611404076103</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.994941192223908e-08</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.86201096708683</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.952244932727876e-08</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.866295901034558</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.55118835631849e-08</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.875037166287922</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.014702039658106e-07</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.876751139867013</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.186429431242143e-07</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.879236401556695</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.189623875055694e-07</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.883521335504422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.07502819717046e-07</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.887891968131104</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9.472048196783998e-08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.891491312647195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.054528104162999e-07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.896376137347605</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.615810319447248e-08</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.900746769974288</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.668173670698745e-08</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.908973843153924</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.525478137856159e-08</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.917886505765197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.843110533075585e-08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.926370674981698</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.168294252572752e-08</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.934854844198199</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.803847465822985e-08</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.943510410772608</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.912642871857227e-08</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.952251676025972</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.964706268294654e-07</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.960564447884564</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.613750433699091e-07</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.969305713137928</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5.955675953954257e-07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.977618484996519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.561576729643047e-07</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.982160514981111</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.360621579351688e-07</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.986274051570929</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.099975341050437e-07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.994843919466384</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.426390533367274e-07</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.012069353936249</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.487594614925214e-07</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.020724920510658</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.684798833497627e-07</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.02903769236925</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.161574029749416e-07</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.046263126839114</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9.451431050938626e-08</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.063402862630025</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.967775666745253e-08</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.080542598420934</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.547622015234211e-07</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.084998929726572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.160918026640514e-07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.08816978084789</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.199427385430071e-07</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.097682334211846</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.947046178022121e-07</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.101967268159573</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.349749502993669e-07</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.106423599465209</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.635583833656047e-07</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.114907768681709</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.537826072176266e-07</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.123306239219255</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.182253123355655e-07</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.131961805793665</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.450398601822697e-07</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.133847176730665</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.925899078461534e-07</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.136503835778257</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.851469970831409e-07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.140617372368075</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.023771544712508e-08</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.149015842905621</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.39894124109793e-08</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.166241277375486</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.478691055988576e-08</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.180210162045077</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.789183382647166e-08</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.200435050278351</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.89527283900222e-08</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.209004918173807</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.131966753867533e-08</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.21774618342717</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.032332329326641e-08</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.226230352643671</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.946502732057338e-08</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.231543670738853</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.196475020560191e-08</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.234971617897036</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.272292081493541e-08</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.24071342938699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.229849232542492e-08</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.249111899924536</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.157020185706145e-08</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.2521970523669</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.392087888138513e-08</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.257767466498946</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.006213288819528e-08</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.262138099125628</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.230082003586863e-08</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.264537662136355</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.190659704967555e-08</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.267280019862901</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.325233625913806e-08</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.269079692120946</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.746794467856309e-08</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.271479255131674</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.269393380223841e-08</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.273021831352856</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.374075663779506e-08</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.281677397927266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.304144120939737e-08</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.286305126590811</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.719276887395335e-08</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.29024726582272</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.372554174055294e-08</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.298731435039221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.427972581601245e-08</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.303359163702766</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.982470263869572e-08</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.307472700292585</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.432149475964643e-08</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.309957961982268</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.490668053117977e-08</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.310129359340176</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.414313577448809e-08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.311757634240313</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.157676972343723e-07</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.31604256818804</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.819228865514733e-07</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.318613528556677</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.469408400228173e-07</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.320584598172632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.443883270584556e-07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.322898462504404</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.296478803226924e-07</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.325555121551995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.227730093685925e-07</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.327954684562723</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.193840174996979e-07</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.330782740968223</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.051944901251899e-07</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.33318230397895</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.838092594679839e-07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.337638635284587</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.35935360652874e-07</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.341752171874406</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.692304392837728e-08</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.350407738448815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.866391591635711e-07</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.354692672396543</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.798156650452886e-07</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.358634811628452</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.832049424616437e-07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.366947583487043</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.618846734220137e-07</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.371918106866407</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.611895286613557e-07</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.375088957987725</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.846831703033199e-07</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.377745617035317</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.700073624321595e-07</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.379545289293363</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.567176597115532e-07</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.380487974761863</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.59993049483939e-07</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.380830769477681</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.513571719128038e-07</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.381087865514544</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.535425865259105e-07</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.382973236451544</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.883624342806805e-07</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.384687210030635</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.224816099037359e-07</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.386401183609727</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.819181810348431e-07</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.388029458509863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.582431002819474e-07</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.389057842657317</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.577543930680687e-07</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.389743432088954</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.264883219039728e-07</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.392314392457591</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.919458749094041e-07</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.396599326405318</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.984027086884603e-07</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.400884260353045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.798461382669903e-07</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.404912098263909</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.574255338897441e-07</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.406111879769273</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.656544833114777e-07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.4094541282485</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.958135089583143e-08</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.413824760875183</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7.961766941998124e-08</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.41622432388591</v>
+      </c>
+      <c r="C162" t="n">
+        <v>8.308062818993485e-08</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.418795284254546</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8.196964682871854e-08</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.421623340660047</v>
+      </c>
+      <c r="C164" t="n">
+        <v>8.408530380126671e-08</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.423337314239138</v>
+      </c>
+      <c r="C165" t="n">
+        <v>8.707579817160435e-08</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.424194301028683</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8.75759932103188e-08</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.429336221765956</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.182715136712508e-08</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.431392990060865</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.623707778906874e-08</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.440477050030048</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.332728154957155e-08</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.457445388463049</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.038588022482882e-07</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.474756521611869</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.29251034091643e-07</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.491896257402779</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.782423128983995e-07</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.500037631903461</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.527028152558246e-07</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.503122784345824</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.714225878790827e-07</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.509121691872643</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.726807239132525e-07</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.517520162410189</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.782478265259398e-07</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.521890795036872</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.953503664150736e-07</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.526175728984599</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.234788094594363e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.530460662932327</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.954519271197412e-07</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.534574199522145</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.967545004936685e-07</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.539030530827781</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.368238394360038e-07</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.543486862133419</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.188991617069741e-06</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.545800726465191</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.362035480023244e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.549914263055009</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.309756472675503e-06</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.551628236634101</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.284276485641842e-06</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.553942100965873</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.250940536734424e-06</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.558912624345237</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.79396473960843e-07</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.562940462256101</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.232853594399223e-07</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.56688260148801</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.054832678984227e-07</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.571424631472602</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.395591108934901e-07</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.575623866741375</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.344247114422482e-07</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.580080198047011</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.754098415743956e-07</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.58402233727892</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.56566569332808e-07</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.588478668584557</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.414565798162455e-07</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.588650065942466</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.408349447400967e-07</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.592078013100648</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.24603481479889e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.593277794606012</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.219855954838558e-07</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.593534890642876</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.20468337740616e-07</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.596534344406285</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.261403628283887e-07</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.597819824590603</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.175418871113783e-07</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.601504867785649</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.513550782658737e-07</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.603133142685785</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.460532275293776e-07</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.604932814943831</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.440394567614876e-07</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.606646788522922</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.428024409416042e-07</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.608446460780968</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.40592832672075e-07</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.610160434360059</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.409087333920349e-07</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.611617311902286</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.398442680295101e-07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.615987944528968</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.224115975392265e-07</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.620529974513559</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.022934183512249e-07</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.622929537524286</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9.688005643535803e-08</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.623272332240105</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.006810724016069e-07</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.623786524313832</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.650049038691277e-08</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.625586196571877</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9.454974132745031e-08</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.628928445051105</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9.291712396730505e-08</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.631670802777651</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9.321761245492658e-08</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.64049776670997</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9.654114457708137e-08</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.649667525358106</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9.413489304121559e-08</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.658494489290425</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8.848211353570343e-08</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.667921343975426</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9.074294697887503e-08</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.671263592454653</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9.487522212168206e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a1IntegrandDataPoints4.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints4.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.845196485704993e-07</v>
+        <v>1.853463669208823e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.682851502610013e-07</v>
+        <v>1.665368483129347e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.563783354302344e-07</v>
+        <v>1.576357984145442e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.46201342296671e-07</v>
+        <v>1.43217324103144e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.421866701949446e-07</v>
+        <v>1.422396779552603e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.383912615290614e-07</v>
+        <v>1.405868998287136e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33807469023404e-07</v>
+        <v>1.314916229398977e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.13978218776105e-07</v>
+        <v>1.141105071102877e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>9.696170090376585e-08</v>
+        <v>9.984464496143966e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>6.665825899598172e-08</v>
+        <v>6.655909619027993e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>4.01471627191193e-08</v>
+        <v>3.788227916740092e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>3.023515445267029e-08</v>
+        <v>2.977308518040169e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>1.335311704494737e-07</v>
+        <v>1.322549413170796e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>1.806985127830974e-07</v>
+        <v>1.809177234871627e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>1.698095254329858e-07</v>
+        <v>1.681050434670371e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>1.718851377829947e-07</v>
+        <v>1.730833552568234e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.701517782287438e-07</v>
+        <v>1.709731617216762e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.709606649486005e-07</v>
+        <v>1.715320571675377e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.850297737019665e-07</v>
+        <v>1.846309831916205e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>2.514117785280932e-07</v>
+        <v>2.510750428015339e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>3.071664873724507e-07</v>
+        <v>3.047987723167582e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>3.765461934525747e-07</v>
+        <v>3.792572549994827e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>3.980900453585433e-07</v>
+        <v>3.980107916075472e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>3.625961899994515e-07</v>
+        <v>3.595506310800625e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>3.39180985579588e-07</v>
+        <v>3.52256214372247e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>3.440856465482595e-07</v>
+        <v>3.469210422751844e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>3.478847948877724e-07</v>
+        <v>3.522625974515188e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>3.340709754079706e-07</v>
+        <v>3.32799679555053e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>3.156255358627052e-07</v>
+        <v>3.155255509230569e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>2.937143132304789e-07</v>
+        <v>2.934452352303108e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>2.787822798143088e-07</v>
+        <v>2.823395589239094e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>2.589761214478699e-07</v>
+        <v>2.602579390092859e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>2.526844737269196e-07</v>
+        <v>2.548162592194417e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>2.258674229368775e-07</v>
+        <v>2.212199668305588e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.929377492136302e-07</v>
+        <v>1.958446522277206e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>1.631393124694725e-07</v>
+        <v>1.662742249611094e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.363036863247596e-07</v>
+        <v>1.365003125823764e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>1.546927957608501e-07</v>
+        <v>1.567552029514705e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.149792693835655e-07</v>
+        <v>1.135375067187704e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.183922102538566e-07</v>
+        <v>1.18767734244433e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>1.127191604428428e-07</v>
+        <v>1.138119474465522e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>9.923719724459576e-08</v>
+        <v>9.905606534788965e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>9.281103065625085e-08</v>
+        <v>9.323084982929338e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>9.07925392738728e-08</v>
+        <v>8.883856387293986e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>7.171808693046745e-08</v>
+        <v>7.227019728550917e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>7.148966374558714e-08</v>
+        <v>7.174689802785868e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>7.47363679322677e-08</v>
+        <v>7.312838120801463e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>7.363003508014634e-08</v>
+        <v>7.487175377321875e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>7.295758656808003e-08</v>
+        <v>7.327970370437358e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>6.074229030966265e-08</v>
+        <v>6.095748606806402e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>6.06490396953605e-08</v>
+        <v>6.423844716348898e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>3.774495874420815e-08</v>
+        <v>3.581722842987571e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>3.601648592906522e-08</v>
+        <v>3.777714288844721e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>3.634613155556614e-08</v>
+        <v>3.816186434702875e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>4.918623065060769e-08</v>
+        <v>5.389682173475972e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>6.736655223324738e-08</v>
+        <v>6.516803223690191e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>7.634698154776183e-08</v>
+        <v>7.601370418857322e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.390557753127136e-08</v>
+        <v>7.371555696606207e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>7.994941192223908e-08</v>
+        <v>8.046847933654721e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>8.952244932727876e-08</v>
+        <v>8.964765441082049e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>9.55118835631849e-08</v>
+        <v>9.559988030223976e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.014702039658106e-07</v>
+        <v>1.017600403743125e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>1.186429431242143e-07</v>
+        <v>1.19170423440212e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>1.189623875055694e-07</v>
+        <v>1.177414194553666e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07502819717046e-07</v>
+        <v>1.040717308179058e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>9.472048196783998e-08</v>
+        <v>1.001587476439619e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>1.054528104162999e-07</v>
+        <v>1.069316682947512e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>8.615810319447248e-08</v>
+        <v>8.78440276243112e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>6.668173670698745e-08</v>
+        <v>6.678855610566499e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>8.525478137856159e-08</v>
+        <v>8.436494075530403e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>2.843110533075585e-08</v>
+        <v>2.681275633013014e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>2.168294252572752e-08</v>
+        <v>2.515708257642384e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>2.803847465822985e-08</v>
+        <v>2.797594828182902e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>6.912642871857227e-08</v>
+        <v>6.96812851829768e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.964706268294654e-07</v>
+        <v>1.964510419409607e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>5.613750433699091e-07</v>
+        <v>5.598851450882836e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>5.955675953954257e-07</v>
+        <v>6.062892382239902e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>4.561576729643047e-07</v>
+        <v>4.506852853986524e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>2.360621579351688e-07</v>
+        <v>2.37528875348716e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>2.099975341050437e-07</v>
+        <v>2.10590842632505e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>2.426390533367274e-07</v>
+        <v>2.425045199995939e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.487594614925214e-07</v>
+        <v>2.489013141735733e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>1.684798833497627e-07</v>
+        <v>1.692025338675048e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>1.161574029749416e-07</v>
+        <v>1.15624377163396e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>9.451431050938626e-08</v>
+        <v>9.370529125835756e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>9.967775666745253e-08</v>
+        <v>9.973217556188141e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>1.547622015234211e-07</v>
+        <v>1.548028308728826e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>3.160918026640514e-07</v>
+        <v>3.1651828130334e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>3.199427385430071e-07</v>
+        <v>3.193585608590024e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>2.947046178022121e-07</v>
+        <v>2.965273271784617e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>2.349749502993669e-07</v>
+        <v>2.354665403208444e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>1.635583833656047e-07</v>
+        <v>1.648371887519811e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>2.537826072176266e-07</v>
+        <v>2.517468080443638e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>5.182253123355655e-07</v>
+        <v>5.205573088964687e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>4.450398601822697e-07</v>
+        <v>4.456242474669273e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>2.925899078461534e-07</v>
+        <v>2.934571715300391e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>1.851469970831409e-07</v>
+        <v>1.856180009112554e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>9.023771544712508e-08</v>
+        <v>8.97169512199436e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>6.39894124109793e-08</v>
+        <v>6.414765909713575e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>6.478691055988576e-08</v>
+        <v>6.467642523224067e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.789183382647166e-08</v>
+        <v>6.762860295206011e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>6.89527283900222e-08</v>
+        <v>6.861587311095601e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>7.131966753867533e-08</v>
+        <v>7.16166048148736e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>7.032332329326641e-08</v>
+        <v>7.043105839583764e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>6.946502732057338e-08</v>
+        <v>6.979090363967994e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>7.196475020560191e-08</v>
+        <v>7.141720280039588e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>7.272292081493541e-08</v>
+        <v>7.283490328078963e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>7.229849232542492e-08</v>
+        <v>7.178922989637919e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>7.157020185706145e-08</v>
+        <v>7.156264142950908e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>7.392087888138513e-08</v>
+        <v>7.367800201920647e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>7.006213288819528e-08</v>
+        <v>6.996681351785289e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>7.230082003586863e-08</v>
+        <v>7.204105011184799e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>7.190659704967555e-08</v>
+        <v>7.166755901035249e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>7.325233625913806e-08</v>
+        <v>7.379136818762955e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>7.746794467856309e-08</v>
+        <v>7.778989856444121e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>7.269393380223841e-08</v>
+        <v>7.30324856969694e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>7.374075663779506e-08</v>
+        <v>7.396920860048435e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>7.304144120939737e-08</v>
+        <v>7.329244527195818e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>7.719276887395335e-08</v>
+        <v>7.703693317205103e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>7.372554174055294e-08</v>
+        <v>7.359960571423876e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>7.427972581601245e-08</v>
+        <v>7.446962616835875e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>7.982470263869572e-08</v>
+        <v>8.008814754380911e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>8.432149475964643e-08</v>
+        <v>8.446210640093375e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>9.490668053117977e-08</v>
+        <v>9.535744671469455e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>9.414313577448809e-08</v>
+        <v>9.406936837582209e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.157676972343723e-07</v>
+        <v>1.159716148589863e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>1.819228865514733e-07</v>
+        <v>1.832772957526355e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>2.469408400228173e-07</v>
+        <v>2.468446759929017e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>2.443883270584556e-07</v>
+        <v>2.44198955022884e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>2.296478803226924e-07</v>
+        <v>2.306316680867884e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>2.227730093685925e-07</v>
+        <v>2.247839673133384e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>2.193840174996979e-07</v>
+        <v>2.187851312543723e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>2.051944901251899e-07</v>
+        <v>2.058815609401336e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>1.838092594679839e-07</v>
+        <v>1.839404435094147e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35935360652874e-07</v>
+        <v>1.368825004854331e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>9.692304392837728e-08</v>
+        <v>9.707294452927036e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.866391591635711e-07</v>
+        <v>1.86895918681646e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.798156650452886e-07</v>
+        <v>1.808938689574611e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.832049424616437e-07</v>
+        <v>1.830551562880299e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.618846734220137e-07</v>
+        <v>1.622067271288746e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.611895286613557e-07</v>
+        <v>1.611122855489439e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.846831703033199e-07</v>
+        <v>2.849589081553083e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>3.700073624321595e-07</v>
+        <v>3.708850974905998e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>3.567176597115532e-07</v>
+        <v>3.571814366342826e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>3.59993049483939e-07</v>
+        <v>3.595757052128584e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>3.513571719128038e-07</v>
+        <v>3.522415512882939e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>3.535425865259105e-07</v>
+        <v>3.540423470874843e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>5.883624342806805e-07</v>
+        <v>5.890140841532356e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>6.224816099037359e-07</v>
+        <v>6.233250188270337e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>5.819181810348431e-07</v>
+        <v>5.826212125914819e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>5.582431002819474e-07</v>
+        <v>5.595369695014489e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>5.577543930680687e-07</v>
+        <v>5.576111548616647e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>5.264883219039728e-07</v>
+        <v>5.274409035310123e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>4.919458749094041e-07</v>
+        <v>4.926098719505287e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>3.984027086884603e-07</v>
+        <v>3.989721629413558e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>2.798461382669903e-07</v>
+        <v>2.797508358429787e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>1.574255338897441e-07</v>
+        <v>1.574842293012603e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>1.656544833114777e-07</v>
+        <v>1.656306471848623e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>8.958135089583143e-08</v>
+        <v>8.984953688785252e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>7.961766941998124e-08</v>
+        <v>7.946788374197356e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>8.308062818993485e-08</v>
+        <v>8.300033563376506e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>8.196964682871854e-08</v>
+        <v>8.217481678940721e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>8.408530380126671e-08</v>
+        <v>8.465289063128533e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>8.707579817160435e-08</v>
+        <v>8.703939378207531e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>8.75759932103188e-08</v>
+        <v>8.719913417389683e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>9.182715136712508e-08</v>
+        <v>9.177745921554262e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>9.623707778906874e-08</v>
+        <v>9.671896682746448e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>9.332728154957155e-08</v>
+        <v>9.39804260602625e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>1.038588022482882e-07</v>
+        <v>1.041847004076491e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>1.29251034091643e-07</v>
+        <v>1.294101743909863e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>1.782423128983995e-07</v>
+        <v>1.785758424967996e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>2.527028152558246e-07</v>
+        <v>2.533653492250932e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>2.714225878790827e-07</v>
+        <v>2.719625712264777e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.726807239132525e-07</v>
+        <v>3.728051127465174e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>4.782478265259398e-07</v>
+        <v>4.785035592487073e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>4.953503664150736e-07</v>
+        <v>4.953356570588291e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>5.234788094594363e-07</v>
+        <v>5.226177884462453e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>5.954519271197412e-07</v>
+        <v>5.960807673961168e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>7.967545004936685e-07</v>
+        <v>7.957583114335889e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>9.368238394360038e-07</v>
+        <v>9.396762145220288e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.188991617069741e-06</v>
+        <v>1.18886189842773e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.362035480023244e-06</v>
+        <v>1.364929292435777e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.309756472675503e-06</v>
+        <v>1.309273294252013e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.284276485641842e-06</v>
+        <v>1.285786424833764e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.250940536734424e-06</v>
+        <v>1.252101284435988e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>9.79396473960843e-07</v>
+        <v>9.805185372498353e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>7.232853594399223e-07</v>
+        <v>7.238822044669974e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>5.054832678984227e-07</v>
+        <v>5.05603766685035e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>3.395591108934901e-07</v>
+        <v>3.394285203717611e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>2.344247114422482e-07</v>
+        <v>2.348110084482448e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>1.754098415743956e-07</v>
+        <v>1.758897751569e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>1.56566569332808e-07</v>
+        <v>1.568947975843371e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>1.414565798162455e-07</v>
+        <v>1.419899315320768e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>1.408349447400967e-07</v>
+        <v>1.409653076593651e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>1.24603481479889e-07</v>
+        <v>1.247022113655193e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>1.219855954838558e-07</v>
+        <v>1.221525029595738e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>1.20468337740616e-07</v>
+        <v>1.203630006782074e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>1.261403628283887e-07</v>
+        <v>1.267488306926527e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>1.175418871113783e-07</v>
+        <v>1.172792571681171e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>1.513550782658737e-07</v>
+        <v>1.511753732647265e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>1.460532275293776e-07</v>
+        <v>1.469512243425083e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>1.440394567614876e-07</v>
+        <v>1.438370291790861e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>1.428024409416042e-07</v>
+        <v>1.427248899546589e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>1.40592832672075e-07</v>
+        <v>1.406141603930056e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>1.409087333920349e-07</v>
+        <v>1.410464562206868e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>1.398442680295101e-07</v>
+        <v>1.395735690063537e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>1.224115975392265e-07</v>
+        <v>1.225612880892865e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>1.022934183512249e-07</v>
+        <v>1.028257679637084e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>9.688005643535803e-08</v>
+        <v>9.716533541220364e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>1.006810724016069e-07</v>
+        <v>1.005126864199556e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>9.650049038691277e-08</v>
+        <v>9.672261934606745e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>9.454974132745031e-08</v>
+        <v>9.437959969230536e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>9.291712396730505e-08</v>
+        <v>9.317084971224821e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>9.321761245492658e-08</v>
+        <v>9.362001627807712e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>9.654114457708137e-08</v>
+        <v>9.665527586815132e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>9.413489304121559e-08</v>
+        <v>9.411556308957006e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>8.848211353570343e-08</v>
+        <v>8.838870448310819e-08</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>9.074294697887503e-08</v>
+        <v>9.08786489857471e-08</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>9.487522212168206e-08</v>
+        <v>9.490640095112355e-08</v>
       </c>
     </row>
   </sheetData>
